--- a/Reporte_Cuenta.xlsx
+++ b/Reporte_Cuenta.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Campo</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>500.000</t>
-  </si>
-  <si>
-    <t>58.000</t>
   </si>
   <si>
     <t>Gasto General</t>
@@ -532,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -578,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -601,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -621,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -644,27 +641,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45717.48789821388</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45717</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -690,50 +667,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
